--- a/biology/Histoire de la zoologie et de la botanique/Hans_Leo_Przibram/Hans_Leo_Przibram.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Hans_Leo_Przibram/Hans_Leo_Przibram.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hans Leo Przibram [ˈpʃɪbram], né le 7 juillet 1874 à Lainz près de Vienne et mort le 20 mai 1944 au camp de concentration de Theresienstadt est un zoologiste autrichien et le fondateur de la biologie expérimentale en Autriche.
 Przibram a fondé le premier laboratoire de biologie expérimentale, la Biologische Versuchsanstalt au Vivarium du Prater à Vienne, où il installe des chambres à température constante et développe la transplantation autophore. Il a été le maître et mentor du biologiste Paul Kammerer et l'auteur d'un traité de biologie expérimentale en sept volumes.
@@ -512,7 +524,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Versuch zur chemischen Charakterisierung einiger Tierklassen des natürlichen Systems auf Grund ihres Muskelplasmas. Friedrich Vieweg &amp; Sohn, Braunschweig 1902.
 Einleitung in die Experimentelle Morpohologie der Tiere. Deuticke, Wien 1904.
